--- a/circuits/DiodeLogicBoards/diode logic board.xlsx
+++ b/circuits/DiodeLogicBoards/diode logic board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mwwhited\EmbeddedBakery\circuits\DiodeLogicBoards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DFEA57-C2BF-44FF-BC2A-E8EEA8181277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D0AE0-A647-42D5-BC64-88027B948B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5BF7B3B7-0EDA-4CEB-9D46-6548B1E3B8CA}"/>
+    <workbookView xWindow="54585" yWindow="3105" windowWidth="21600" windowHeight="11055" activeTab="1" xr2:uid="{5BF7B3B7-0EDA-4CEB-9D46-6548B1E3B8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="4 to 16" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>A</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>q'7</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -1840,10 +1843,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L7" sqref="L7:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2451,6 +2454,81 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
     </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="AE14">
+        <f>16+8+4</f>
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
